--- a/Documentation/Use Case Bataille Navale Rui_Monteiro.xlsx
+++ b/Documentation/Use Case Bataille Navale Rui_Monteiro.xlsx
@@ -5,24 +5,22 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rui-Miguel.MONTEIRO\Google Drive\CPNV\1ére année\Modules\ICT\431\Bataille Navale\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\1.Modules\MA\20\BatailleNavale\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="8" r:id="rId1"/>
-    <sheet name="Use case" sheetId="3" r:id="rId2"/>
-    <sheet name="Feuil1" sheetId="1" r:id="rId3"/>
-    <sheet name="Feuil4" sheetId="4" r:id="rId4"/>
-    <sheet name="Feuil5" sheetId="5" r:id="rId5"/>
-    <sheet name="Feuil6" sheetId="6" r:id="rId6"/>
-    <sheet name="Feuil7" sheetId="7" r:id="rId7"/>
-    <sheet name="Parametres" sheetId="2" r:id="rId8"/>
+    <sheet name="Use case scénario" sheetId="3" r:id="rId2"/>
+    <sheet name="User case lancer un programme" sheetId="1" r:id="rId3"/>
+    <sheet name="User case mettre l'identifiant" sheetId="4" r:id="rId4"/>
+    <sheet name="User case lancer une partie" sheetId="5" r:id="rId5"/>
+    <sheet name="User case jouer" sheetId="6" r:id="rId6"/>
+    <sheet name="Parametres" sheetId="2" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
   <si>
     <t>Identifiant + Titre</t>
   </si>
@@ -72,12 +70,33 @@
   <si>
     <t>Utilisateur</t>
   </si>
+  <si>
+    <t>Lancer le programme</t>
+  </si>
+  <si>
+    <t>Lancer une partie</t>
+  </si>
+  <si>
+    <t>Jouer</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Mettre l'dentifiant</t>
+  </si>
+  <si>
+    <t>BN_Lancement du programme</t>
+  </si>
+  <si>
+    <t>Jouer à la bataille navale</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -85,8 +104,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -96,6 +123,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -369,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -395,6 +428,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,32 +473,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,6 +500,331 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>761999</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Émoticône 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="762000" y="571500"/>
+          <a:ext cx="761999" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="smileyFace">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flèche droite 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1162050" y="1343025"/>
+          <a:ext cx="1104900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flèche droite 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="1714500"/>
+          <a:ext cx="1104900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flèche droite 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="2095500"/>
+          <a:ext cx="1104900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flèche droite 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1171575" y="2476500"/>
+          <a:ext cx="1104900" cy="161925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1085850" y="1152525"/>
+          <a:ext cx="95250" cy="1504950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="fr-CH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -725,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -740,15 +1110,63 @@
   <sheetPr>
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:K19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="16384" width="11.42578125" style="24"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D8" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D10" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D12" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="26"/>
+      <c r="F12" s="27"/>
+    </row>
+    <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="26"/>
+      <c r="F14" s="27"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D14:F14"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -760,7 +1178,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -770,104 +1188,126 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="15"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="15"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="15"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="15"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15" t="s">
+        <v>8</v>
+      </c>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="17"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -881,28 +1321,22 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Parametres!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>D6:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Parametres!$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -918,7 +1352,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -928,50 +1362,52 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -979,59 +1415,65 @@
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:C6"/>
@@ -1039,28 +1481,28 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Parametres!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>D6:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Parametres!$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1076,7 +1518,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1086,50 +1528,52 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -1137,59 +1581,65 @@
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:C6"/>
@@ -1197,28 +1647,28 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Parametres!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>D6:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Parametres!$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1234,7 +1684,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="D3" sqref="D3:G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1244,50 +1694,52 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="21"/>
+      <c r="C2" s="12"/>
       <c r="D2" s="15"/>
       <c r="E2" s="16"/>
       <c r="F2" s="16"/>
       <c r="G2" s="17"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="15"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="15" t="s">
+        <v>12</v>
+      </c>
       <c r="E3" s="16"/>
       <c r="F3" s="16"/>
       <c r="G3" s="17"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="21"/>
+      <c r="C4" s="12"/>
       <c r="D4" s="15"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="17"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="21"/>
+      <c r="C5" s="12"/>
       <c r="D5" s="15"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16"/>
       <c r="G5" s="17"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="23"/>
+      <c r="C6" s="14"/>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
@@ -1295,59 +1747,65 @@
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="10"/>
+      <c r="F8" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="19"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="19"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="22"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:C6"/>
@@ -1355,28 +1813,28 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Parametres!$B$3:$B$6</xm:f>
           </x14:formula1>
           <xm:sqref>D6:G6</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Parametres!$D$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:G3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1387,170 +1845,12 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FF00B0F0"/>
-  </sheetPr>
-  <dimension ref="B1:G12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="16384" width="11.85546875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-    </row>
-    <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="21"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
-    </row>
-    <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
-    </row>
-    <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="21"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
-    </row>
-    <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="23"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="19"/>
-      <c r="D8" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="19"/>
-    </row>
-    <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="9"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-    </row>
-    <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="12"/>
-    </row>
-    <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-    </row>
-    <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14"/>
-    </row>
-  </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Parametres!$B$3:$B$6</xm:f>
-          </x14:formula1>
-          <xm:sqref>D6:G6</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
     <tabColor theme="1"/>
   </sheetPr>
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/Use Case Bataille Navale Rui_Monteiro.xlsx
+++ b/Documentation/Use Case Bataille Navale Rui_Monteiro.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Introduction" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
   <si>
     <t>Identifiant + Titre</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Jouer à la bataille navale</t>
+  </si>
+  <si>
+    <t>L'utilisateur clique sur le lanceur du programme</t>
+  </si>
+  <si>
+    <t>Le programme s'ouvre</t>
+  </si>
+  <si>
+    <t>BN_Identification</t>
   </si>
 </sst>
 </file>
@@ -402,7 +411,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -428,6 +437,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -456,34 +495,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1112,51 +1127,51 @@
   </sheetPr>
   <dimension ref="B3:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="24"/>
+    <col min="1" max="16384" width="11.42578125" style="9"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="27"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="26"/>
-      <c r="F12" s="27"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="12"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1188,126 +1203,118 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="22"/>
+      <c r="D4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="22"/>
+      <c r="D5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="24"/>
+      <c r="D6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
@@ -1321,6 +1328,18 @@
     <mergeCell ref="D4:G4"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="D6:G6"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1351,8 +1370,8 @@
   </sheetPr>
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1362,118 +1381,116 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:C6"/>
@@ -1481,12 +1498,18 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1528,118 +1551,112 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:C6"/>
@@ -1647,12 +1664,18 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1694,118 +1717,112 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15" t="s">
+      <c r="C3" s="22"/>
+      <c r="D3" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="27"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="17"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="27"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="27"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="20"/>
+      <c r="D8" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="10"/>
+      <c r="G8" s="20"/>
     </row>
     <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="18"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
     </row>
     <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="20"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="21"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
     </row>
     <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="20"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="21"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
     </row>
     <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:G2"/>
+    <mergeCell ref="B3:C3"/>
+    <mergeCell ref="D3:G3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:G4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:C6"/>
@@ -1813,12 +1830,18 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:G2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="D3:G3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1850,7 +1873,7 @@
   <dimension ref="B1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.42578125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Documentation/Use Case Bataille Navale Rui_Monteiro.xlsx
+++ b/Documentation/Use Case Bataille Navale Rui_Monteiro.xlsx
@@ -9,16 +9,16 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8085" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
-    <sheet name="Introduction" sheetId="8" r:id="rId1"/>
+    <sheet name="Introduction" sheetId="8" state="hidden" r:id="rId1"/>
     <sheet name="Use case scénario" sheetId="3" r:id="rId2"/>
     <sheet name="User case lancer un programme" sheetId="1" r:id="rId3"/>
     <sheet name="User case mettre l'identifiant" sheetId="4" r:id="rId4"/>
-    <sheet name="User case lancer une partie" sheetId="5" r:id="rId5"/>
-    <sheet name="User case jouer" sheetId="6" r:id="rId6"/>
-    <sheet name="Parametres" sheetId="2" r:id="rId7"/>
+    <sheet name="User case jouer " sheetId="5" r:id="rId5"/>
+    <sheet name="User case aide" sheetId="6" r:id="rId6"/>
+    <sheet name="Parametres" sheetId="2" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Identifiant + Titre</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Lancer le programme</t>
   </si>
   <si>
-    <t>Lancer une partie</t>
-  </si>
-  <si>
     <t>Jouer</t>
   </si>
   <si>
@@ -99,6 +96,84 @@
   </si>
   <si>
     <t>BN_Identification</t>
+  </si>
+  <si>
+    <t>L'utilisateur lance le programme</t>
+  </si>
+  <si>
+    <t>M'identifier dans le programme</t>
+  </si>
+  <si>
+    <t>S'identifier</t>
+  </si>
+  <si>
+    <t>L'utilisateur appuye sur la touche pour s'identifier</t>
+  </si>
+  <si>
+    <t>Le programme demande le nom de l'utilisateur</t>
+  </si>
+  <si>
+    <t>Le programme affiche une confirmation de identification</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le programme affiche le menu des options pour </t>
+  </si>
+  <si>
+    <t>L'utilisateur appuye sur la touche pour jour et envoye la valeure</t>
+  </si>
+  <si>
+    <t>Le programme dééboute une partie</t>
+  </si>
+  <si>
+    <t>Jouer à la Bataille Navale</t>
+  </si>
+  <si>
+    <t>Le programme affiche la grille et demande une valeure horizontale</t>
+  </si>
+  <si>
+    <t>L'utilisateur entre une valeure horizontale</t>
+  </si>
+  <si>
+    <t>Si la valeure est plus petite ou plus grande de ce qui est demandé</t>
+  </si>
+  <si>
+    <t>Le programme affiche si l'utilisateur a touché un bateau ou pas</t>
+  </si>
+  <si>
+    <t>Le programme redemande la valeure horizontale</t>
+  </si>
+  <si>
+    <t>Le programme demande une valeure verticale</t>
+  </si>
+  <si>
+    <t>L'utilisateur entre une valeure verticale</t>
+  </si>
+  <si>
+    <t>Le programme redemande la valeure verticale</t>
+  </si>
+  <si>
+    <t>BN_jouer</t>
+  </si>
+  <si>
+    <t>Aide</t>
+  </si>
+  <si>
+    <t>BN_afficher aide</t>
+  </si>
+  <si>
+    <t>Lire les régles</t>
+  </si>
+  <si>
+    <t>M'informer sur les régles du jeu</t>
+  </si>
+  <si>
+    <t>L'utilisateur entre la valeur des régles</t>
+  </si>
+  <si>
+    <t>Le programme affiche les régles</t>
+  </si>
+  <si>
+    <t>Le programme affiche demande si l'utilisateur veu quitter le jeu après avoir lu les régles ou s'il veut revenir dans le menu principal</t>
   </si>
 </sst>
 </file>
@@ -142,7 +217,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -407,11 +482,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -440,6 +559,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -450,22 +572,22 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -494,10 +616,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1128,7 +1256,7 @@
   <dimension ref="B3:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="D14" sqref="D14:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1138,40 +1266,40 @@
   <sheetData>
     <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="11"/>
-      <c r="F10" s="12"/>
+      <c r="D10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
     </row>
     <row r="13" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="14" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D14" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
+      <c r="D14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1193,7 +1321,7 @@
   <dimension ref="B1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1203,115 +1331,117 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="23"/>
+      <c r="D3" s="26" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
+    </row>
+    <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+    </row>
+    <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-    </row>
-    <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
-    </row>
-    <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
-    </row>
-    <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25" t="s">
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1368,10 +1498,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1381,110 +1511,116 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="28" t="s">
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="2:7" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:7" s="10" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" s="10" customFormat="1" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="22">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B3:C3"/>
@@ -1498,18 +1634,15 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="F9:G9"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:E10"/>
     <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1538,10 +1671,10 @@
   <sheetPr>
     <tabColor rgb="FF00B0F0"/>
   </sheetPr>
-  <dimension ref="B1:G12"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+      <selection activeCell="D2" sqref="D2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1551,106 +1684,152 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="G12" s="19"/>
+    </row>
+    <row r="13" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="19"/>
+      <c r="F14" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="31">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B3:C3"/>
@@ -1676,6 +1855,12 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
@@ -1706,8 +1891,8 @@
   </sheetPr>
   <dimension ref="B1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.85546875" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1717,112 +1902,129 @@
   <sheetData>
     <row r="1" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="25" t="s">
+      <c r="C3" s="23"/>
+      <c r="D3" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="28"/>
     </row>
     <row r="4" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="25"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="27"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="27"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="27"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="21"/>
+      <c r="D8" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="19" t="s">
+      <c r="E8" s="21"/>
+      <c r="F8" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="20"/>
-    </row>
-    <row r="9" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="15"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-    </row>
-    <row r="11" spans="2:7" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="15"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-    </row>
-    <row r="12" spans="2:7" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="29"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="30"/>
+    </row>
+    <row r="11" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="31"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="32"/>
+    </row>
+    <row r="12" spans="2:7" s="10" customFormat="1" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="18"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
+  <mergeCells count="22">
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="D4:G4"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:G9"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="D5:G5"/>
     <mergeCell ref="B6:C6"/>
@@ -1830,18 +2032,12 @@
     <mergeCell ref="B8:C8"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="F8:G8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
